--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="15165" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:B20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t>testname</t>
   </si>
@@ -117,13 +118,31 @@
   </si>
   <si>
     <t>69.0</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>regression,smoke</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>hjhkjhkjhkj</t>
+  </si>
+  <si>
+    <t>bmnbnbnb</t>
+  </si>
+  <si>
+    <t>regression,sanity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +156,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF64728C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,11 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,6 +282,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -290,6 +317,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,23 +493,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8">
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,56 +526,88 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8">
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8">
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8">
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -556,25 +617,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,12 +661,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -616,8 +677,8 @@
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -626,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -652,8 +713,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -668,17 +729,17 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.8">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -704,12 +765,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -717,25 +778,25 @@
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8">
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -756,12 +817,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -782,7 +843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34.049999999999997" customHeight="1">
+    <row r="9" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -810,5 +871,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>